--- a/FILTERRegionProdVal.xlsx
+++ b/FILTERRegionProdVal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d\Mag\FreeTips\Tip981\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC4D3C5-3029-4C7F-B7C5-B6EC5FE5A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9737F7-D6A5-47D7-8DDF-0132DEDE39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-18617" windowWidth="33120" windowHeight="18120" tabRatio="801" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2936,14 +2936,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2958,8 +2958,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9949543" y="3091543"/>
-          <a:ext cx="440871" cy="408214"/>
+          <a:off x="9949543" y="3358243"/>
+          <a:ext cx="391886" cy="326571"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2995,13 +2995,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>65313</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:rowOff>65316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3016,8 +3016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810499" y="2770415"/>
-          <a:ext cx="6237515" cy="887185"/>
+          <a:off x="7810499" y="2770416"/>
+          <a:ext cx="6237515" cy="582384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3057,21 +3057,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>=LET(FilteredRange2,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="994807"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LET(FilteredRange,</a:t>
+            <a:t>=LET(FilteredRange,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3099,21 +3085,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FILTER(FilteredRange,INDEX(FilteredRange,,3)&gt;4)),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-NZ" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="994807"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FILTER(FilteredRange2,INDEX(FilteredRange2,,3)&lt;7))</a:t>
+            <a:t>FILTER(FilteredRange,(INDEX(FilteredRange,,3)&gt;4)*(INDEX(FilteredRange,,3)&lt;7)))</a:t>
           </a:r>
           <a:endParaRPr lang="en-NZ" sz="1000">
             <a:solidFill>
@@ -3421,8 +3393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{120B2B2A-100F-452D-9959-382D9AF07DDE}" name="dtbData2" displayName="dtbData2" ref="K29:M37" totalsRowShown="0">
-  <autoFilter ref="K29:M37" xr:uid="{B6CFC9EF-F490-4AF0-B673-22B10C1084CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{120B2B2A-100F-452D-9959-382D9AF07DDE}" name="dtbData2" displayName="dtbData2" ref="K26:M34" totalsRowShown="0">
+  <autoFilter ref="K26:M34" xr:uid="{B6CFC9EF-F490-4AF0-B673-22B10C1084CA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1F856F59-74A4-44A0-B8C5-3A907065EFB8}" name="Region"/>
     <tableColumn id="2" xr3:uid="{DF645795-64EE-4BA9-AC92-FEEE0C6D63F6}" name="Prod"/>
@@ -4104,7 +4076,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f ca="1">TEXT(NOW(),"d-mmm-yyyy h:mm AM/PM ")</f>
-        <v xml:space="preserve">17-Apr-2024 8:28 am </v>
+        <v xml:space="preserve">17-Apr-2024 8:44 am </v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4127,14 +4099,14 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFC5D79B"/>
   </sheetPr>
-  <dimension ref="K10:Z38"/>
+  <dimension ref="K10:Z35"/>
   <sheetViews>
     <sheetView topLeftCell="K11" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K11" sqref="K11"/>
       <selection pane="topRight" activeCell="L11" sqref="L11"/>
       <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
@@ -4361,12 +4333,16 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K25" s="44"/>
+    <row r="25" spans="11:20" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="K25" s="45" t="s">
+        <v>49</v>
+      </c>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
+      <c r="O25" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
@@ -4374,39 +4350,66 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="K26" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
+      <c r="O26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
+      <c r="K27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="44">
+        <v>1</v>
+      </c>
       <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
+      <c r="O27" t="str" cm="1">
+        <f t="array" ref="O27:Q27">_xlfn.LET(_xlpm.FilteredRange,_xlfn._xlws.FILTER(dtbData[],COUNTIFS(dtbCriteria2[Region],dtbData2[Region],dtbCriteria2[Prod],dtbData2[Prod])),_xlfn._xlws.FILTER(_xlpm.FilteredRange,(INDEX(_xlpm.FilteredRange,,3)&gt;4)*(INDEX(_xlpm.FilteredRange,,3)&lt;7)))</f>
+        <v>North</v>
+      </c>
+      <c r="P27" s="44" t="str">
+        <v>Beta</v>
+      </c>
+      <c r="Q27" s="44">
+        <v>6</v>
+      </c>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="11:20" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="K28" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="44">
+        <v>2</v>
+      </c>
       <c r="N28" s="44"/>
-      <c r="O28" s="45" t="s">
-        <v>51</v>
-      </c>
+      <c r="O28" s="44"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -4415,62 +4418,49 @@
     </row>
     <row r="29" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K29" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="M29" s="44">
+        <v>3</v>
       </c>
       <c r="N29" s="44"/>
-      <c r="O29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="46" t="s">
-        <v>44</v>
-      </c>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
     <row r="30" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K30" s="44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L30" s="44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M30" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" s="44"/>
-      <c r="O30" t="str" cm="1">
-        <f t="array" ref="O30:Q30">_xlfn.LET(_xlpm.FilteredRange2,_xlfn.LET(_xlpm.FilteredRange,_xlfn._xlws.FILTER(dtbData[],COUNTIFS(dtbCriteria2[Region],dtbData2[Region],dtbCriteria2[Prod],dtbData2[Prod])),_xlfn._xlws.FILTER(_xlpm.FilteredRange,INDEX(_xlpm.FilteredRange,,3)&gt;4)),_xlfn._xlws.FILTER(_xlpm.FilteredRange2,INDEX(_xlpm.FilteredRange2,,3)&lt;7))</f>
-        <v>North</v>
-      </c>
-      <c r="P30" s="44" t="str">
-        <v>Beta</v>
-      </c>
-      <c r="Q30" s="44">
-        <v>6</v>
-      </c>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
     <row r="31" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K31" s="44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L31" s="44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M31" s="44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" s="44"/>
       <c r="O31" s="44"/>
@@ -4482,13 +4472,13 @@
     </row>
     <row r="32" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K32" s="44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L32" s="44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M32" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
@@ -4498,15 +4488,15 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K33" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M33" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
@@ -4516,15 +4506,15 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K34" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L34" s="44" t="s">
         <v>37</v>
       </c>
       <c r="M34" s="44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
@@ -4533,17 +4523,15 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-    </row>
-    <row r="35" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K35" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="44">
-        <v>6</v>
-      </c>
+      <c r="U34">
+        <f>TRUE*TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
       <c r="N35" s="44"/>
       <c r="O35" s="44"/>
       <c r="P35" s="44"/>
@@ -4551,54 +4539,6 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-    </row>
-    <row r="36" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K36" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" s="44">
-        <v>7</v>
-      </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-    </row>
-    <row r="37" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37" s="44">
-        <v>8</v>
-      </c>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-    </row>
-    <row r="38" spans="11:20" x14ac:dyDescent="0.25">
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
